--- a/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_111.xlsx
+++ b/tests/test-files/test_helpers/expected/wrangle_book_output/sheet_111.xlsx
@@ -526,15 +526,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -608,15 +608,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -632,13 +632,13 @@
         <v>4.21</v>
       </c>
       <c r="I3" t="n">
-        <v>2.3321</v>
+        <v>2.1744</v>
       </c>
       <c r="J3" t="n">
-        <v>2.97</v>
+        <v>23.95</v>
       </c>
       <c r="K3" t="n">
-        <v>124.55</v>
+        <v>934.92</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>2.07</v>
+        <v>2.28</v>
       </c>
       <c r="R3" t="n">
-        <v>1153.189</v>
+        <v>1046.9693</v>
       </c>
     </row>
     <row r="4">
@@ -670,15 +670,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>4.12</v>
+        <v>4.13</v>
       </c>
       <c r="I4" t="n">
-        <v>2.1768</v>
+        <v>2.0136</v>
       </c>
       <c r="J4" t="n">
-        <v>23.42</v>
+        <v>1.92</v>
       </c>
       <c r="K4" t="n">
-        <v>915.23</v>
+        <v>69.59</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="R4" t="n">
-        <v>1080.6652</v>
+        <v>938.8473</v>
       </c>
     </row>
     <row r="5">
@@ -732,15 +732,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -756,13 +756,13 @@
         <v>3.51</v>
       </c>
       <c r="I5" t="n">
-        <v>9.2805</v>
+        <v>8.8226</v>
       </c>
       <c r="J5" t="n">
-        <v>27.2</v>
+        <v>26.72</v>
       </c>
       <c r="K5" t="n">
-        <v>4531.32</v>
+        <v>4233.1</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>7.14</v>
+        <v>8.02</v>
       </c>
       <c r="R5" t="n">
-        <v>3982.7937</v>
+        <v>3682.2468</v>
       </c>
     </row>
     <row r="6">
@@ -794,15 +794,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -818,13 +818,13 @@
         <v>3.19</v>
       </c>
       <c r="I6" t="n">
-        <v>11.211</v>
+        <v>10.6738</v>
       </c>
       <c r="J6" t="n">
-        <v>27.86</v>
+        <v>26.82</v>
       </c>
       <c r="K6" t="n">
-        <v>5608.01</v>
+        <v>5138.88</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>5.88</v>
+        <v>6.72</v>
       </c>
       <c r="R6" t="n">
-        <v>3278.9131</v>
+        <v>3084.7122</v>
       </c>
     </row>
     <row r="7">
@@ -856,15 +856,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -880,13 +880,13 @@
         <v>3.01</v>
       </c>
       <c r="I7" t="n">
-        <v>5.0381</v>
+        <v>4.8875</v>
       </c>
       <c r="J7" t="n">
-        <v>31.09</v>
+        <v>31.27</v>
       </c>
       <c r="K7" t="n">
-        <v>2812.21</v>
+        <v>2743.5</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -906,10 +906,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>4.14</v>
+        <v>4.86</v>
       </c>
       <c r="R7" t="n">
-        <v>2310.2757</v>
+        <v>2230.9878</v>
       </c>
     </row>
     <row r="8">
@@ -918,15 +918,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -942,13 +942,13 @@
         <v>1.69</v>
       </c>
       <c r="I8" t="n">
-        <v>59.204</v>
+        <v>57.8694</v>
       </c>
       <c r="J8" t="n">
-        <v>4.32</v>
+        <v>4.13</v>
       </c>
       <c r="K8" t="n">
-        <v>4587.97</v>
+        <v>4290.49</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>7.99</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="R8" t="n">
-        <v>4460.5622</v>
+        <v>4185.0749</v>
       </c>
     </row>
     <row r="9">
@@ -980,15 +980,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sample</t>
+          <t>control</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>from 20200130-2-500KHABSM-6p750mgml (Second Difference)</t>
+          <t>from 20200130-500KHA-6p750mgml</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1004,13 +1004,13 @@
         <v>0.84</v>
       </c>
       <c r="I9" t="n">
-        <v>16.4498</v>
+        <v>17.3531</v>
       </c>
       <c r="J9" t="n">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="K9" t="n">
-        <v>595.5</v>
+        <v>573.22</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1030,10 +1030,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>0.85</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="R9" t="n">
-        <v>472.5045</v>
+        <v>432.4553</v>
       </c>
     </row>
   </sheetData>
